--- a/Clean-900.xlsx
+++ b/Clean-900.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.611917977881765E-08</v>
+        <v>9.611773918563674E-08</v>
       </c>
       <c r="D2">
-        <v>5.507223331585457E-06</v>
+        <v>5.507140791676195E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>7.960689938467047E-08</v>
+        <v>7.960614720824602E-08</v>
       </c>
       <c r="D3">
-        <v>4.561139354864208E-06</v>
+        <v>4.561096258329638E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>6.366578166322869E-08</v>
+        <v>6.366571790356897E-08</v>
       </c>
       <c r="D4">
-        <v>3.64778058870439E-06</v>
+        <v>3.647776935544986E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>4.084608580788042E-08</v>
+        <v>4.084887359472749E-08</v>
       </c>
       <c r="D5">
-        <v>2.340308326420758E-06</v>
+        <v>2.340468054841277E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>9.13948032757613E-09</v>
+        <v>9.142907455406786E-09</v>
       </c>
       <c r="D6">
-        <v>5.236536497129553E-07</v>
+        <v>5.238500096735037E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-3.252690222537141E-08</v>
+        <v>-3.2529792043666E-08</v>
       </c>
       <c r="D7">
-        <v>-1.863654218148467E-06</v>
+        <v>-1.863819792540307E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-8.048866193124471E-08</v>
+        <v>-8.047719559332867E-08</v>
       </c>
       <c r="D8">
-        <v>-4.61166062731562E-06</v>
+        <v>-4.611003654546559E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-1.108426042109025E-07</v>
+        <v>-1.108458855470429E-07</v>
       </c>
       <c r="D9">
-        <v>-6.350813411523723E-06</v>
+        <v>-6.351001418235726E-06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-1.219880183889535E-07</v>
+        <v>-1.220351512296611E-07</v>
       </c>
       <c r="D10">
-        <v>-6.989398604851312E-06</v>
+        <v>-6.992099117700321E-06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-1.122368822991781E-07</v>
+        <v>-1.122114513227345E-07</v>
       </c>
       <c r="D11">
-        <v>-6.43069966144948E-06</v>
+        <v>-6.429242573830365E-06</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-7.945522296300047E-08</v>
+        <v>-7.947364457977155E-08</v>
       </c>
       <c r="D12">
-        <v>-4.552448936050871E-06</v>
+        <v>-4.55350441694366E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-2.135323112903084E-08</v>
+        <v>-2.129909001751494E-08</v>
       </c>
       <c r="D13">
-        <v>-1.223450022660837E-06</v>
+        <v>-1.220347965472829E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>6.600842743340225E-08</v>
+        <v>6.601871812899826E-08</v>
       </c>
       <c r="D14">
-        <v>3.78200430422951E-06</v>
+        <v>3.782593917655415E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>2.035056687530162E-07</v>
+        <v>2.034721068556143E-07</v>
       </c>
       <c r="D15">
-        <v>1.166001592653518E-05</v>
+        <v>1.16580929714616E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>3.878412903977196E-07</v>
+        <v>3.87880293406008E-07</v>
       </c>
       <c r="D16">
-        <v>2.222166906069708E-05</v>
+        <v>2.222390376846031E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>6.109897935077007E-06</v>
+        <v>6.096621738804027E-06</v>
       </c>
       <c r="D17">
-        <v>0.0003500713649356092</v>
+        <v>0.0003493106949211801</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>1.775250025270298E-05</v>
+        <v>1.773586615386766E-05</v>
       </c>
       <c r="D18">
-        <v>0.001017143340284808</v>
+        <v>0.001016190276625541</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>3.165227924523096E-05</v>
+        <v>3.163286932044264E-05</v>
       </c>
       <c r="D19">
-        <v>0.001813542012721265</v>
+        <v>0.001812429905950228</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>5.528452554304101E-05</v>
+        <v>5.526130112311106E-05</v>
       </c>
       <c r="D20">
-        <v>0.003167569985999445</v>
+        <v>0.00316623932475582</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>9.647098741589512E-05</v>
+        <v>9.644198304776955E-05</v>
       </c>
       <c r="D21">
-        <v>0.005527380424390466</v>
+        <v>0.005525718596509428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>0.0001707450759062992</v>
+      </c>
+      <c r="D22">
+        <v>0.009782972222071824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>0.0002780491194640977</v>
+      </c>
+      <c r="D23">
+        <v>0.01593104104262163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>0.0004064122290791013</v>
+      </c>
+      <c r="D24">
+        <v>0.02328570546873649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>0.0005563079822805022</v>
+      </c>
+      <c r="D25">
+        <v>0.03187409949411136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>0.0007274171306867849</v>
+      </c>
+      <c r="D26">
+        <v>0.04167793153386902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>0.0007734215171822938</v>
+      </c>
+      <c r="D27">
+        <v>0.04431378871915032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>0.0008447793784576879</v>
+      </c>
+      <c r="D28">
+        <v>0.04840229300531041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>0.0009570480664871327</v>
+      </c>
+      <c r="D29">
+        <v>0.05483481500086851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>0.001009292421950389</v>
+      </c>
+      <c r="D30">
+        <v>0.05782819607229433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>0.0010912729711806</v>
+      </c>
+      <c r="D31">
+        <v>0.06252533554534989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>0.001222262114362859</v>
+      </c>
+      <c r="D32">
+        <v>0.07003046061172816</v>
       </c>
     </row>
   </sheetData>
